--- a/data/trans_dic/P5_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de jardín en su vivienda</t>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>15,75%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 19,97</t>
+          <t>10,3; 26,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,05; 29,0</t>
+          <t>10,99; 24,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 16,25</t>
+          <t>8,19; 21,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 17,37</t>
+          <t>9,06; 22,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,22</t>
+          <t>10,87; 20,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 20,71</t>
+          <t>11,66; 20,85</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 18,63</t>
+          <t>13,51; 22,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 20,08</t>
+          <t>15,33; 24,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,9</t>
+          <t>9,8; 17,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 18,19</t>
+          <t>11,15; 18,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 16,49</t>
+          <t>12,61; 18,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,77; 18,16</t>
+          <t>14,25; 19,94</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,81%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 21,25</t>
+          <t>12,99; 24,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 24,22</t>
+          <t>15,1; 26,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,95</t>
+          <t>7,8; 15,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 17,38</t>
+          <t>10,32; 18,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,33</t>
+          <t>11,45; 17,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 19,67</t>
+          <t>13,68; 20,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>12,82%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,09</t>
+          <t>12,07; 17,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,53; 19,99</t>
+          <t>9,69; 15,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,78; 14,98</t>
+          <t>11,67; 16,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 16,51</t>
+          <t>10,52; 16,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 15,93</t>
+          <t>12,51; 15,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,08; 17,49</t>
+          <t>10,72; 15,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 18,11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14,38; 18,95</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 15,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 15,94</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13,39; 16,0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,79; 16,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38932</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58248</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36815</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61590</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>75748</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>119838</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23323; 60735</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37266; 82923</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21444; 56345</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38200; 93535</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53060; 102367</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>88741; 158673</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>116090</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>184165</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>92696</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>144722</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>208786</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>328887</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>87957; 148263</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>142919; 227132</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70113; 122152</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>111482; 180721</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>172304; 253698</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>275396; 385374</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>81928</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>143656</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60780</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>105935</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>142709</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>249591</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>59178; 113046</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>108029; 187371</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41497; 83676</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>79366; 139305</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>113103; 177171</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>203184; 304408</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>309299</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>180541</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>290040</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>186149</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>599338</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>366690</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>255251; 365927</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>141244; 228008</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>243785; 342367</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>147579; 233304</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>525740; 671619</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>306764; 430227</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>546250</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>566611</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>480331</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>498396</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1026581</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1065007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>482080; 624439</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>495428; 652880</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>422481; 545258</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>440056; 572880</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>943586; 1126991</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>970369; 1179751</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>